--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/A/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/A/10/seed1/result_data_KNN.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-19.818</v>
+        <v>-20.178</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-19.524</v>
+        <v>-19.851</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.83</v>
+        <v>-21.901</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.062</v>
+        <v>-21.899</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.652</v>
+        <v>-21.344</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.694</v>
+        <v>-21.816</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.302</v>
+        <v>-19.965</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.176</v>
+        <v>-22.058</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.106</v>
+        <v>-22.275</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.574</v>
+        <v>-21.616</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.794</v>
+        <v>-22.029</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
